--- a/biology/Zoologie/Cylas/Cylas.xlsx
+++ b/biology/Zoologie/Cylas/Cylas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cylas est un genre d'insectes coléoptères de la famille des Brentidae, originaire des régions tropicales et subtropicales, qui comprend une vingtaine d'espèces. Ce genre comprend plusieurs espèces, comme Cylas brunneus, Cylas femoralis, Cylas formicarius et Cylas puncticollis,  de charançons qui attaquent les tubercules de patates douces aussi bien en culture que dans la période de stockage après la récolte.  
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (14 décembre 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (14 décembre 2019) :
 Cylas aeneus Hustache, 1922
 Cylas brunneus (Olivier, 1790)
 Cylas coimbatorensis (Subramanian, 1958)
